--- a/bacteria_archaea/marine_deep_subsurface/carbon_content/marine_deep_subsurface_prok_carbon_content_data.xlsx
+++ b/bacteria_archaea/marine_deep_subsurface/carbon_content/marine_deep_subsurface_prok_carbon_content_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Volume based" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t xml:space="preserve">Study</t>
   </si>
@@ -33,15 +33,24 @@
     <t xml:space="preserve">Remarks</t>
   </si>
   <si>
+    <t xml:space="preserve">Link</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parkes et al.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1038/371410a0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lipp et al. (coccoid)</t>
   </si>
   <si>
     <t xml:space="preserve">Calculated assuming a spherical cell with diameter of 0.5 µm</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1038/nature07174</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lipp et al. (rod)</t>
   </si>
   <si>
@@ -49,6 +58,27 @@
   </si>
   <si>
     <t xml:space="preserve">Kallmeter et al.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://doi.org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/10.1073/pnas.1203849109</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Data collected from Table 2 in Braun et al.</t>
@@ -90,11 +120,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -115,6 +146,14 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,7 +198,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -169,6 +208,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -199,13 +242,13 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -218,68 +261,84 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0.21</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="n">
         <f aca="false">4*3.14/3*(0.5/2)^3</f>
         <v>0.0654166666666667</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="n">
         <f aca="false">1*3.14*(0.5/2)^2</f>
         <v>0.19625</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0.042</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://doi.org/10.1038/371410a0"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://doi.org/10.1038/nature07174"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://doi.org/10.1038/nature07174"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://doi.org"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -294,13 +353,13 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -308,15 +367,15 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -378,7 +437,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -393,36 +452,36 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -434,7 +493,7 @@
         <v>0.05100019088</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0.4415584416</v>
@@ -449,7 +508,7 @@
         <v>0.04802442138</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>0.4437229437</v>
@@ -464,7 +523,7 @@
         <v>0.02829418103</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>0.5194805195</v>
@@ -479,7 +538,7 @@
         <v>0.0260101947</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>0.538961039</v>
@@ -494,7 +553,7 @@
         <v>0.01408721248</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>0.4155844156</v>
@@ -509,7 +568,7 @@
         <v>0.02045054851</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>0.3311688312</v>
@@ -524,7 +583,7 @@
         <v>0.008813932349</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>0.1796536797</v>
@@ -539,7 +598,7 @@
         <v>0.09693631061</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>0.487012987</v>
@@ -554,7 +613,7 @@
         <v>0.1064209244</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>0.4826839827</v>
@@ -569,7 +628,7 @@
         <v>0.07523984227</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>0.3484848485</v>
@@ -584,7 +643,7 @@
         <v>0.02919113391</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>0.4177489177</v>
@@ -599,7 +658,7 @@
         <v>0.03862536415</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>0.5476190476</v>
@@ -614,7 +673,7 @@
         <v>0.03425697689</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>0.6341991342</v>
@@ -629,7 +688,7 @@
         <v>0.02326994554</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>0.6623376623</v>
@@ -644,7 +703,7 @@
         <v>0.3385870392</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>0.0714285714</v>
@@ -659,7 +718,7 @@
         <v>0.192095187</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>0.0735930736</v>
@@ -674,7 +733,7 @@
         <v>0.1980173739</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>0.132034632</v>
@@ -689,7 +748,7 @@
         <v>0.1089839733</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>0.04329004329</v>
@@ -704,7 +763,7 @@
         <v>0.101529771</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>0.0367965368</v>
@@ -719,7 +778,7 @@
         <v>0.2213374718</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>0.03463203463</v>
@@ -734,7 +793,7 @@
         <v>0.08376776401</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>0.158008658</v>
@@ -744,7 +803,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
